--- a/biology/Zoologie/Adversaeschna_brevistyla/Adversaeschna_brevistyla.xlsx
+++ b/biology/Zoologie/Adversaeschna_brevistyla/Adversaeschna_brevistyla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adversaeschna brevistyla est une espèce de libellules de la famille des Aeshnidae appartenant au sous-ordre des Anisoptères dans l'ordre des Odonates. Le genre monotypique Adversaeschna a été décrit par l'entomologiste britannique John Henry Watson en 1992[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adversaeschna brevistyla est une espèce de libellules de la famille des Aeshnidae appartenant au sous-ordre des Anisoptères dans l'ordre des Odonates. Le genre monotypique Adversaeschna a été décrit par l'entomologiste britannique John Henry Watson en 1992.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adversaeschna brevistyla caledonica Davies, 2002
 Aeshna brevistyla Rambur, 1842</t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se retrouve en Australie, en Nouvelle-Zélande, sur l'île de Norfolk[2] et dans certaines îles du Pacifique [3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se retrouve en Australie, en Nouvelle-Zélande, sur l'île de Norfolk et dans certaines îles du Pacifique .
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adversaeschna brevistyla est une libellule de bonne taille d'un brun rougeâtre avec des motifs jaune pâle, verts ou bleus. Les bandes thoraciques sont inclinées et bien distinctes. Aucune autre tache ou motif se retrouve entre les bandes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adversaeschna brevistyla est une libellule de bonne taille d'un brun rougeâtre avec des motifs jaune pâle, verts ou bleus. Les bandes thoraciques sont inclinées et bien distinctes. Aucune autre tache ou motif se retrouve entre les bandes.
 			Bandes thoraciques
 </t>
         </is>
@@ -605,9 +623,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se retrouve dans les lacs et les étangs à végétation dense[4]. On peut également l'observer à proximité des plans d'eau.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se retrouve dans les lacs et les étangs à végétation dense. On peut également l'observer à proximité des plans d'eau.
 </t>
         </is>
       </c>
